--- a/zephyr-uploader/demo_zephyr.xlsx
+++ b/zephyr-uploader/demo_zephyr.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" state="visible" r:id="rId2"/>
@@ -329,7 +329,7 @@
         <family val="3"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">ReleaseVersion</t>
+      <t xml:space="preserve">releaseVersion</t>
     </r>
     <r>
       <rPr>
@@ -422,7 +422,7 @@
         <family val="3"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">noOfThreads</t>
+      <t xml:space="preserve">NoOfThreads</t>
     </r>
     <r>
       <rPr>
@@ -938,7 +938,7 @@
   </sheetPr>
   <dimension ref="A1:L1008"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -1436,8 +1436,8 @@
   </sheetPr>
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/zephyr-uploader/demo_zephyr.xlsx
+++ b/zephyr-uploader/demo_zephyr.xlsx
@@ -287,7 +287,7 @@
         <family val="3"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">http://jira.yourcompany.com/rest/
+      <t xml:space="preserve">http://jira.yourcompany.com
 </t>
     </r>
     <r>
@@ -1437,7 +1437,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1496,6 +1496,9 @@
   <mergeCells count="1">
     <mergeCell ref="D3:D5"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" display="http://jira.yourcompany.com"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
